--- a/OREI_files/10-herd data/files associated with making 10-herd NAS modeling dataframe/desc stats move to 10herd.xlsx
+++ b/OREI_files/10-herd data/files associated with making 10-herd NAS modeling dataframe/desc stats move to 10herd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="108" documentId="8_{7FEFC556-96CF-4CEA-8FAA-C642C379A2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A01CA8B1-76EE-4340-8FB1-D08AB5E5A36B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{66D7BD90-027E-4712-9BAE-0F8360DABD08}"/>
+    <workbookView xWindow="36900" yWindow="0" windowWidth="20805" windowHeight="15585" activeTab="2" xr2:uid="{66D7BD90-027E-4712-9BAE-0F8360DABD08}"/>
   </bookViews>
   <sheets>
     <sheet name="ind preds list PAIRS" sheetId="1" r:id="rId1"/>
@@ -5265,8 +5265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F3935C-24CA-4059-9B6F-878E076CBD55}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="76" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6097,8 +6097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA61871B-608F-4492-A77E-0C6F1287FCAD}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="95" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView zoomScale="95" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6899,8 +6899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEB0FB1-4E0D-4BBA-A448-582BDB45F0AF}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="95" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
